--- a/review/rna-literature-review.xlsx
+++ b/review/rna-literature-review.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA4F64-A4BE-4A4E-8EC7-B7B3FE3C89AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A186F0DF-03B3-4709-BBEA-D418CF15DB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_rna" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="140">
   <si>
     <t>study</t>
   </si>
@@ -63,9 +65,6 @@
     <t>Xtr</t>
   </si>
   <si>
-    <t>totalRNA_foldchange_sd</t>
-  </si>
-  <si>
     <t>non</t>
   </si>
   <si>
@@ -442,6 +441,15 @@
   </si>
   <si>
     <t>rna_fc</t>
+  </si>
+  <si>
+    <t>sd_pre</t>
+  </si>
+  <si>
+    <t>sd_post</t>
+  </si>
+  <si>
+    <t>sd_change</t>
   </si>
 </sst>
 </file>
@@ -791,731 +799,738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H28:H32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="9" max="11" width="20" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>107</v>
-      </c>
       <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" t="s">
-        <v>102</v>
-      </c>
       <c r="T1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>0.76388889999999998</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2">
+        <v>103</v>
+      </c>
+      <c r="N2">
         <v>0.984456</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2">
         <v>16</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>4</v>
       </c>
-      <c r="R2">
-        <f>O2*P2*Q2</f>
+      <c r="T2">
+        <f>Q2*R2*S2</f>
         <v>192</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3">
         <v>0.23148150000000001</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3">
+        <v>103</v>
+      </c>
+      <c r="N3">
         <v>4.1968909999999999</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R21" si="0">O3*P3*Q3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T21" si="0">Q3*R3*S3</f>
         <v>192</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>0.34722219999999998</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4">
+        <v>103</v>
+      </c>
+      <c r="N4">
         <v>6.1398960000000002</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4">
         <v>16</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>4</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5">
         <v>1.2037036999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5">
+        <v>103</v>
+      </c>
+      <c r="N5">
         <v>6.839378</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5">
         <v>16</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6">
         <v>1.9212963000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6">
+        <v>103</v>
+      </c>
+      <c r="N6">
         <v>6.1917099999999996</v>
       </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6">
         <v>16</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7">
         <v>1.4814814999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7">
+        <v>103</v>
+      </c>
+      <c r="N7">
         <v>8.4974089999999993</v>
       </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7">
         <v>16</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>1.3888889</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8">
+        <v>103</v>
+      </c>
+      <c r="N8">
         <v>9.0155440000000002</v>
       </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>4</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9">
         <v>1.087963</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9">
+        <v>103</v>
+      </c>
+      <c r="N9">
         <v>10.181347000000001</v>
       </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9">
         <v>16</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>0.81018520000000005</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10">
+        <v>103</v>
+      </c>
+      <c r="N10">
         <v>9.3005180000000003</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>2.6851851999999998</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11">
+        <v>103</v>
+      </c>
+      <c r="N11">
         <v>11.347149999999999</v>
       </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11">
         <v>16</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <v>4.4907406999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12">
+        <v>103</v>
+      </c>
+      <c r="N12">
         <v>13.678756</v>
       </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>21.6</v>
@@ -1524,57 +1539,57 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13">
         <f>AVERAGE(H2:H12)</f>
         <v>1.4920033727272726</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13">
-        <f>AVERAGE(L2:L12)</f>
+        <v>103</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(N2:N12)</f>
         <v>7.8520959090909086</v>
       </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13">
         <v>16</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>4</v>
       </c>
-      <c r="R13">
-        <f t="shared" ref="R13" si="1">O13*P13*Q13</f>
+      <c r="T13">
+        <f t="shared" ref="T13" si="1">Q13*R13*S13</f>
         <v>192</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>66</v>
@@ -1583,58 +1598,58 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <v>1.0608364373635628</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14">
+        <v>104</v>
+      </c>
+      <c r="N14">
         <v>-7</v>
       </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14">
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14">
         <v>12</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>4</v>
       </c>
-      <c r="T14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>64</v>
@@ -1643,58 +1658,58 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15">
         <v>1.0871212727272728</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15">
+        <v>104</v>
+      </c>
+      <c r="N15">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15">
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>4</v>
       </c>
-      <c r="T15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>67</v>
@@ -1703,58 +1718,58 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16">
         <v>1.2610442409638554</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16">
+        <v>104</v>
+      </c>
+      <c r="N16">
         <v>83</v>
       </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16">
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>4</v>
       </c>
-      <c r="T16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>39.200000000000003</v>
@@ -1763,55 +1778,55 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17">
         <v>1.0681817092265018</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>9</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>0</v>
       </c>
-      <c r="T17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>75.7</v>
@@ -1820,55 +1835,55 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>0.96017708894588882</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>9</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0</v>
       </c>
-      <c r="T18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>23</v>
@@ -1877,58 +1892,58 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>1.3972604544942966</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19">
+        <v>104</v>
+      </c>
+      <c r="N19">
         <v>8.1300813008130071</v>
       </c>
-      <c r="M19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19">
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19">
         <v>9</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>1</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>6</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="T19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>23</v>
@@ -1937,58 +1952,58 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>1.2191782431976159</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20">
+        <v>104</v>
+      </c>
+      <c r="N20">
         <v>10.569105691056912</v>
       </c>
-      <c r="M20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20">
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20">
         <v>18</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>1</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>6</v>
       </c>
-      <c r="T20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>69</v>
@@ -1997,58 +2012,58 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21">
         <v>1.0776119814212533</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21">
+        <v>104</v>
+      </c>
+      <c r="N21">
         <v>5.0000000000000044</v>
       </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21">
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21">
         <v>9</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>6</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="T21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>69</v>
@@ -2057,58 +2072,58 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>1.1492535865448832</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22">
+        <v>104</v>
+      </c>
+      <c r="N22">
         <v>5.0000000000000044</v>
       </c>
-      <c r="M22" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22">
+      <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22">
         <v>18</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22">
-        <f>O22*P22*Q22</f>
-        <v>108</v>
       </c>
       <c r="S22">
         <v>6</v>
       </c>
-      <c r="T22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <f>Q22*R22*S22</f>
+        <v>108</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>25</v>
@@ -2117,59 +2132,59 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>1.1142355008787346</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23">
+        <v>104</v>
+      </c>
+      <c r="N23">
         <v>15.035077261680975</v>
       </c>
-      <c r="M23" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23">
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23">
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R23">
-        <f>O23*P23*Q23</f>
+      <c r="T23">
+        <f>Q23*R23*S23</f>
         <v>239.99999999999761</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>12</v>
       </c>
-      <c r="T23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>25</v>
@@ -2178,56 +2193,56 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24">
         <v>1.1142355008787346</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24">
+        <v>104</v>
+      </c>
+      <c r="N24">
         <v>12.855809612692488</v>
       </c>
-      <c r="M24" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s">
-        <v>109</v>
-      </c>
-      <c r="O24">
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24">
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R24">
-        <f t="shared" ref="R24:R41" si="2">O24*P24*Q24</f>
+      <c r="T24">
+        <f t="shared" ref="T24:T41" si="2">Q24*R24*S24</f>
         <v>239.99999999999761</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>25</v>
@@ -2236,56 +2251,56 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25">
         <v>1.1142355008787346</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25">
+        <v>104</v>
+      </c>
+      <c r="N25">
         <v>17.401960784313726</v>
       </c>
-      <c r="M25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ref="O25:O37" si="3">12*3</f>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q37" si="3">12*3</f>
         <v>36</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -2294,56 +2309,56 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26">
         <v>1.1142355008787346</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26">
+        <v>104</v>
+      </c>
+      <c r="N26">
         <v>22.231815238506368</v>
       </c>
-      <c r="M26" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26">
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -2352,56 +2367,56 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27">
         <v>1.1142355008787346</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
-      </c>
-      <c r="L27">
+        <v>104</v>
+      </c>
+      <c r="N27">
         <v>16.184615384615384</v>
       </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27">
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -2410,56 +2425,56 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <v>1.1423220973782771</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28">
+        <v>103</v>
+      </c>
+      <c r="N28">
         <v>15.035077261680975</v>
       </c>
-      <c r="M28" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28">
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>2</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>25</v>
@@ -2468,56 +2483,56 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>1.1423220973782771</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29">
+        <v>103</v>
+      </c>
+      <c r="N29">
         <v>12.855809612692488</v>
       </c>
-      <c r="M29" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29">
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>2</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>25</v>
@@ -2526,56 +2541,56 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30">
         <v>1.1423220973782771</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30">
+        <v>103</v>
+      </c>
+      <c r="N30">
         <v>17.401960784313726</v>
       </c>
-      <c r="M30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30">
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>2</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>25</v>
@@ -2584,56 +2599,56 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <v>1.1423220973782771</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31">
+        <v>103</v>
+      </c>
+      <c r="N31">
         <v>22.231815238506368</v>
       </c>
-      <c r="M31" t="s">
-        <v>75</v>
-      </c>
-      <c r="N31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O31">
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>25</v>
@@ -2642,56 +2657,56 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32">
         <v>1.1423220973782771</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32">
+        <v>103</v>
+      </c>
+      <c r="N32">
         <v>16.184615384615384</v>
       </c>
-      <c r="M32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" t="s">
-        <v>109</v>
-      </c>
-      <c r="O32">
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>2</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>25</v>
@@ -2700,56 +2715,56 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33">
         <v>1.0790874524714829</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33">
+        <v>104</v>
+      </c>
+      <c r="N33">
         <v>15.035077261680975</v>
       </c>
-      <c r="M33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33">
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>25</v>
@@ -2758,56 +2773,56 @@
         <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34">
         <v>1.0790874524714829</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34">
+        <v>104</v>
+      </c>
+      <c r="N34">
         <v>12.855809612692488</v>
       </c>
-      <c r="M34" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34">
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>2</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>25</v>
@@ -2816,56 +2831,56 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35">
         <v>1.0790874524714829</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35">
+        <v>104</v>
+      </c>
+      <c r="N35">
         <v>17.401960784313726</v>
       </c>
-      <c r="M35" t="s">
-        <v>74</v>
-      </c>
-      <c r="N35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O35">
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>25</v>
@@ -2874,56 +2889,56 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36">
         <v>1.0790874524714829</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36">
+        <v>104</v>
+      </c>
+      <c r="N36">
         <v>22.231815238506368</v>
       </c>
-      <c r="M36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36" t="s">
-        <v>109</v>
-      </c>
-      <c r="O36">
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -2932,56 +2947,56 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37">
         <v>1.0790874524714829</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L37">
+        <v>104</v>
+      </c>
+      <c r="N37">
         <v>16.184615384615384</v>
       </c>
-      <c r="M37" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37">
+      <c r="O37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>3.3333333333333002</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <f t="shared" si="2"/>
         <v>239.99999999999761</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>22.5</v>
@@ -2990,52 +3005,52 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <v>1.29</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
-      </c>
-      <c r="M38" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38">
+        <v>104</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>3</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
         <v>124</v>
       </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>22.5</v>
@@ -3044,52 +3059,52 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39">
         <v>1.18</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" t="s">
-        <v>117</v>
-      </c>
-      <c r="N39" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39">
+        <v>104</v>
+      </c>
+      <c r="O39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39">
         <v>4</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>2</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>1</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>22.5</v>
@@ -3098,52 +3113,52 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <v>1.18</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
-      </c>
-      <c r="M40" t="s">
-        <v>117</v>
-      </c>
-      <c r="N40" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40">
+        <v>104</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q40">
         <v>31</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>3</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
         <v>124</v>
       </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>22.5</v>
@@ -3152,52 +3167,52 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>1.1200000000000001</v>
       </c>
       <c r="I41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" t="s">
-        <v>117</v>
-      </c>
-      <c r="N41" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41">
+        <v>104</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q41">
         <v>31</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>1</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
         <v>134</v>
       </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>25</v>
@@ -3206,45 +3221,45 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42">
         <v>1.1543147883996032</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
-      </c>
-      <c r="L42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N42" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
-      <c r="T42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>25</v>
@@ -3253,45 +3268,45 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43">
         <v>1.0284264945502408</v>
       </c>
       <c r="I43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>105</v>
-      </c>
-      <c r="L43" t="s">
-        <v>46</v>
-      </c>
-      <c r="M43" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N43" t="s">
-        <v>46</v>
-      </c>
-      <c r="O43">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43">
         <v>1</v>
       </c>
-      <c r="T43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -3300,45 +3315,45 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44">
         <v>1.2274113015795407</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
-      </c>
-      <c r="L44" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44">
+        <v>45</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
         <v>2</v>
       </c>
-      <c r="T44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
         <v>134</v>
       </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>25</v>
@@ -3347,31 +3362,31 @@
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45">
         <v>1.385786861861944</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
-      </c>
-      <c r="L45" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O45">
+        <v>45</v>
+      </c>
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45">
         <v>2</v>
       </c>
-      <c r="T45" t="s">
-        <v>136</v>
+      <c r="V45" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3385,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AI60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,10 +3414,10 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -3410,30 +3425,30 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>547.91669999999999</v>
@@ -3459,10 +3474,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>581.25</v>
@@ -3488,10 +3503,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <f>E6-E5</f>
@@ -3508,10 +3523,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>550</v>
@@ -3537,10 +3552,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>597.91669999999999</v>
@@ -3580,10 +3595,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>518.75</v>
@@ -3609,10 +3624,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>654.16669999999999</v>
@@ -3652,23 +3667,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>521.48149999999998</v>
@@ -3683,7 +3698,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>669.62959999999998</v>
@@ -3698,47 +3713,47 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
       <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
         <v>42</v>
       </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2.75</v>
@@ -3763,7 +3778,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>3.91</v>
@@ -3800,7 +3815,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>3.38</v>
@@ -3837,10 +3852,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2.5769229999999999</v>
@@ -3865,7 +3880,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2.7769230999999999</v>
@@ -3902,7 +3917,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>2.961538</v>
@@ -3939,50 +3954,50 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
         <v>52</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>53</v>
-      </c>
-      <c r="K39" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" t="s">
         <v>56</v>
-      </c>
-      <c r="I40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" t="s">
-        <v>55</v>
-      </c>
-      <c r="M40" t="s">
-        <v>48</v>
-      </c>
-      <c r="N40" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <v>2.2599999999999998</v>
@@ -3993,7 +4008,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -4033,7 +4048,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4047,47 +4062,47 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2">
         <v>0.56899999999999995</v>
@@ -4113,14 +4128,14 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L47" s="4">
         <f>(J47+C47)/C47</f>
         <v>1.1142355008787346</v>
       </c>
       <c r="N47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O47">
         <v>4286</v>
@@ -4139,15 +4154,15 @@
         <v>551</v>
       </c>
       <c r="AH47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI47" t="s">
         <v>62</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2">
         <v>0.53400000000000003</v>
@@ -4173,14 +4188,14 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" ref="L48" si="6">(J48+C48)/C48</f>
         <v>1.1423220973782771</v>
       </c>
       <c r="N48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O48">
         <v>5304</v>
@@ -4199,15 +4214,15 @@
         <v>923</v>
       </c>
       <c r="AH48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI48" t="s">
         <v>64</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2">
         <v>2.63</v>
@@ -4233,14 +4248,14 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L49" s="4">
         <f>(J49+C49)/C49</f>
         <v>1.0790874524714829</v>
       </c>
       <c r="N49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O49">
         <v>4633</v>
@@ -4259,15 +4274,15 @@
         <v>1030</v>
       </c>
       <c r="AH49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI49" t="s">
         <v>67</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O50">
         <v>4875</v>
@@ -4282,26 +4297,26 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4316,7 +4331,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4331,7 +4346,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4346,7 +4361,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4361,7 +4376,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -4396,13 +4411,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,7 +4428,7 @@
         <v>3.319391E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4424,7 +4439,7 @@
         <v>4.324861E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,7 +4450,7 @@
         <v>4.8036559999999999E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4446,7 +4461,7 @@
         <v>5.3303299999999998E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4472,7 @@
         <v>4.7557759999999998E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,7 +4483,7 @@
         <v>4.2769809999999998E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,7 +4494,7 @@
         <v>3.2715109999999999E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4490,7 +4505,7 @@
         <v>4.5642580000000002E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,7 +4516,7 @@
         <v>4.37274E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4512,7 +4527,7 @@
         <v>6.3836799999999999E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,7 +4538,7 @@
         <v>6.3836799999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4534,7 +4549,7 @@
         <v>7.5806670000000007E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,7 +4560,7 @@
         <v>7.6285469999999994E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,7 +4571,7 @@
         <v>8.9212940000000004E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,7 +4582,7 @@
         <v>8.538258E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,7 +4593,7 @@
         <v>8.8255349999999996E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,7 +4604,7 @@
         <v>9.2564499999999994E-2</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,7 +4615,7 @@
         <v>8.4424990000000005E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,7 +4626,7 @@
         <v>7.8200649999999997E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +4637,7 @@
         <v>6.4794389999999993E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,7 +4648,7 @@
         <v>7.7243060000000002E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4644,7 +4659,7 @@
         <v>8.059463E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4655,7 +4670,7 @@
         <v>9.4958479999999998E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,7 +4681,7 @@
         <v>0.10214041</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +4692,7 @@
         <v>9.1128120000000007E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4688,7 +4703,7 @@
         <v>9.3522090000000002E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,7 +4714,7 @@
         <v>9.0649320000000005E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4710,7 +4725,7 @@
         <v>8.7776549999999995E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +4736,7 @@
         <v>0.11171631</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4732,7 +4747,7 @@
         <v>5.7612459999999997E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4743,7 +4758,7 @@
         <v>6.0485230000000001E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4754,7 +4769,7 @@
         <v>6.3357999999999998E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,7 +4780,7 @@
         <v>6.527318E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,7 +4791,7 @@
         <v>6.6230769999999994E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,7 +4802,7 @@
         <v>6.8145949999999997E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4798,7 +4813,7 @@
         <v>7.8200649999999997E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,7 +4824,7 @@
         <v>9.6394859999999999E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4820,7 +4835,7 @@
         <v>9.4958479999999998E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,7 +4846,7 @@
         <v>8.7776549999999995E-2</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4857,7 @@
         <v>0.11171631</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,7 +4868,7 @@
         <v>8.4903779999999998E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4864,7 +4879,7 @@
         <v>0.10022523</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,7 +4890,7 @@
         <v>0.11123751</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4886,7 +4901,7 @@
         <v>0.11602546</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4897,7 +4912,7 @@
         <v>0.12608016</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4908,7 +4923,7 @@
         <v>0.13805004000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,7 +4934,7 @@
         <v>0.14188039999999999</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4930,7 +4945,7 @@
         <v>0.13900762999999999</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,7 +4956,7 @@
         <v>0.14523196999999999</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,7 +4967,7 @@
         <v>0.16773534000000001</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,7 +4978,7 @@
         <v>0.19359027000000001</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4974,7 +4989,7 @@
         <v>0.21130568999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
